--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D76985-FEF2-4E2E-AE12-359946F07162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC3887E-F2FC-9A40-A181-884AE30DBA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -372,6 +373,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Roc Space</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -694,6 +720,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>FPR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -757,6 +838,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>TPR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -789,6 +925,680 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="92701711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Graphique du Recall et de la Precision</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.27631578947368424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BF2-FB48-836A-FE1FBAD5C74E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.72549019607843135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.48684210526315791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BF2-FB48-836A-FE1FBAD5C74E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.77477477477477474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.56578947368421051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4BF2-FB48-836A-FE1FBAD5C74E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5l</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4BF2-FB48-836A-FE1FBAD5C74E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1445837904"/>
+        <c:axId val="1481485856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1445837904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1481485856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1481485856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445837904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -955,6 +1765,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1968,6 +2818,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2038,12 +3404,266 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>6349</xdr:rowOff>
     </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Groupe 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579AEA69-33EA-8A7B-A4E3-E6236A71D282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8950324" y="3302000"/>
+          <a:ext cx="8023225" cy="4705349"/>
+          <a:chOff x="8950324" y="3302000"/>
+          <a:chExt cx="8023225" cy="4705349"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="Groupe 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7E62B5-63DA-036A-B254-AAECDB29D8F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8950324" y="3302000"/>
+            <a:ext cx="8023225" cy="4705349"/>
+            <a:chOff x="8950324" y="3302000"/>
+            <a:chExt cx="8023225" cy="4705349"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="10" name="Graphique 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584F3995-63C4-FFAF-4539-DA33B3FB9BB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="8950324" y="3302000"/>
+            <a:ext cx="8023225" cy="4705349"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="3" name="Connecteur droit 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A0B708-99C8-8A9A-E82A-379E02DDD630}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="9525000" y="3771900"/>
+              <a:ext cx="7277100" cy="3378200"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="9" name="Connecteur droit 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1743BA2D-E573-E145-B0DA-DF474AD08C81}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeAspect="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="9533451" y="3773714"/>
+              <a:ext cx="5956136" cy="2766786"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="11" name="Connecteur droit 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596D7155-0716-0348-90E0-6CBF9E37E6AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeAspect="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="9577831" y="3764643"/>
+              <a:ext cx="6084455" cy="2812143"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="ZoneTexte 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D505A4A1-FB78-2898-8E96-05969B03D8C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16129000" y="4025900"/>
+            <a:ext cx="605550" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1100"/>
+              <a:t>Chance</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Graphique 9">
+        <xdr:cNvPr id="25" name="Graphique 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584F3995-63C4-FFAF-4539-DA33B3FB9BB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D029E2-3DE0-5B9F-0AAF-EADE6153261B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,110 +3675,10 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Connecteur droit 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A0B708-99C8-8A9A-E82A-379E02DDD630}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8636000" y="3606800"/>
-          <a:ext cx="7016750" cy="3530600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Connecteur droit 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45430EC1-D8F6-4BE0-845E-BB52AA1AA533}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8337550" y="3130550"/>
-          <a:ext cx="7016750" cy="3530600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2463,13 +3983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -2555,7 +4075,7 @@
         <v>0.43778801843317972</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -2600,7 +4120,7 @@
         <v>0.51152073732718895</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -2645,7 +4165,7 @@
         <v>0.58064516129032262</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>15</v>
       </c>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC3887E-F2FC-9A40-A181-884AE30DBA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB8B645-E23B-E848-8C63-5F7A1FA53E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
@@ -3983,7 +3983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
